--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tnfsf11-Tnfrsf11a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tnfsf11-Tnfrsf11a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Tnfsf11</t>
+  </si>
+  <si>
+    <t>Tnfrsf11a</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Tnfsf11</t>
-  </si>
-  <si>
-    <t>Tnfrsf11a</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.020131</v>
+        <v>0.07928633333333333</v>
       </c>
       <c r="H2">
-        <v>0.060393</v>
+        <v>0.237859</v>
       </c>
       <c r="I2">
-        <v>0.2024898408057616</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.2024898408057615</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.695797666666666</v>
+        <v>0.7227396666666666</v>
       </c>
       <c r="N2">
-        <v>11.087393</v>
+        <v>2.168219</v>
       </c>
       <c r="O2">
-        <v>0.5461442533223501</v>
+        <v>0.1904947117138812</v>
       </c>
       <c r="P2">
-        <v>0.5461442533223499</v>
+        <v>0.1904947117138812</v>
       </c>
       <c r="Q2">
-        <v>0.07440010282766665</v>
+        <v>0.05730337812455555</v>
       </c>
       <c r="R2">
-        <v>0.6696009254489999</v>
+        <v>0.5157304031209999</v>
       </c>
       <c r="S2">
-        <v>0.1105886629122242</v>
+        <v>0.1904947117138812</v>
       </c>
       <c r="T2">
-        <v>0.1105886629122241</v>
+        <v>0.1904947117138812</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.020131</v>
+        <v>0.07928633333333333</v>
       </c>
       <c r="H3">
-        <v>0.060393</v>
+        <v>0.237859</v>
       </c>
       <c r="I3">
-        <v>0.2024898408057616</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.2024898408057615</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,152 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.071274666666667</v>
+        <v>3.071274666666666</v>
       </c>
       <c r="N3">
-        <v>9.213824000000001</v>
+        <v>9.213823999999999</v>
       </c>
       <c r="O3">
-        <v>0.45385574667765</v>
+        <v>0.8095052882861188</v>
       </c>
       <c r="P3">
-        <v>0.4538557466776499</v>
+        <v>0.8095052882861187</v>
       </c>
       <c r="Q3">
-        <v>0.06182783031466667</v>
+        <v>0.2435101069795555</v>
       </c>
       <c r="R3">
-        <v>0.556450472832</v>
+        <v>2.191590962816</v>
       </c>
       <c r="S3">
-        <v>0.0919011778935374</v>
+        <v>0.8095052882861188</v>
       </c>
       <c r="T3">
-        <v>0.09190117789353737</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G4">
-        <v>0.07928633333333333</v>
-      </c>
-      <c r="H4">
-        <v>0.237859</v>
-      </c>
-      <c r="I4">
-        <v>0.7975101591942385</v>
-      </c>
-      <c r="J4">
-        <v>0.7975101591942384</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>3.695797666666666</v>
-      </c>
-      <c r="N4">
-        <v>11.087393</v>
-      </c>
-      <c r="O4">
-        <v>0.5461442533223501</v>
-      </c>
-      <c r="P4">
-        <v>0.5461442533223499</v>
-      </c>
-      <c r="Q4">
-        <v>0.2930262457318888</v>
-      </c>
-      <c r="R4">
-        <v>2.637236211587</v>
-      </c>
-      <c r="S4">
-        <v>0.4355555904101259</v>
-      </c>
-      <c r="T4">
-        <v>0.4355555904101258</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.07928633333333333</v>
-      </c>
-      <c r="H5">
-        <v>0.237859</v>
-      </c>
-      <c r="I5">
-        <v>0.7975101591942385</v>
-      </c>
-      <c r="J5">
-        <v>0.7975101591942384</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>3.071274666666667</v>
-      </c>
-      <c r="N5">
-        <v>9.213824000000001</v>
-      </c>
-      <c r="O5">
-        <v>0.45385574667765</v>
-      </c>
-      <c r="P5">
-        <v>0.4538557466776499</v>
-      </c>
-      <c r="Q5">
-        <v>0.2435101069795556</v>
-      </c>
-      <c r="R5">
-        <v>2.191590962816</v>
-      </c>
-      <c r="S5">
-        <v>0.3619545687841126</v>
-      </c>
-      <c r="T5">
-        <v>0.3619545687841125</v>
+        <v>0.8095052882861187</v>
       </c>
     </row>
   </sheetData>
